--- a/Resources/data.xlsx
+++ b/Resources/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>${username}</t>
   </si>
@@ -35,7 +35,10 @@
     <t>${password}</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>arjuncr94@gmail.com</t>
+  </si>
+  <si>
+    <t>Practice@12</t>
   </si>
   <si>
     <t>aa@yourstore.com</t>
@@ -45,15 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve"> admin@yourstore.com </t>
-  </si>
-  <si>
-    <t>eee</t>
-  </si>
-  <si>
-    <t>arjuncr94@gmail.com</t>
-  </si>
-  <si>
-    <t>Practice@12</t>
   </si>
 </sst>
 </file>
@@ -676,7 +670,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,7 +993,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1017,47 +1011,41 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="arjuncr94@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
